--- a/client/public/TEACHER_INPUT.xlsx
+++ b/client/public/TEACHER_INPUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Duong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6992DA-257D-4352-9851-D64FC79BBF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462F3086-F42A-4CD5-A27A-85058006D8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="16080" xr2:uid="{7E995F81-5EA0-44F6-AC8B-1C336E75AEE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -288,6 +288,21 @@
   </si>
   <si>
     <t>0913456786</t>
+  </si>
+  <si>
+    <t>10A1</t>
+  </si>
+  <si>
+    <t>12A4</t>
+  </si>
+  <si>
+    <t>10A5</t>
+  </si>
+  <si>
+    <t>A A A</t>
+  </si>
+  <si>
+    <t>0123123121</t>
   </si>
 </sst>
 </file>
@@ -674,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B528ED-C6FC-44CF-8331-53CD1AECE03B}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,6 +727,9 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -822,6 +840,9 @@
       <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -867,7 +888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -878,7 +899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -889,7 +910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -900,7 +921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -911,7 +932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -922,7 +943,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -933,7 +954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -944,7 +965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -955,7 +976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -966,7 +987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -977,7 +998,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -988,7 +1009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1009,8 +1030,11 @@
       <c r="C29" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1021,7 +1045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1032,7 +1056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1140,6 +1164,17 @@
       </c>
       <c r="C41" s="3" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
